--- a/doc/Книга1.xlsx
+++ b/doc/Книга1.xlsx
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H16"/>
+  <dimension ref="C3:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -404,7 +404,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>240</v>
       </c>
@@ -423,7 +423,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -434,7 +434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>0</v>
       </c>
@@ -446,7 +446,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -456,8 +456,14 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>240</v>
+      </c>
+      <c r="M8">
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>0</v>
       </c>
@@ -468,8 +474,30 @@
         <f>$C$7+$E$7*C9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <f>E9+60</f>
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="1">
+        <f>(($D$7-$C$7)/6.2)*H9</f>
+        <v>270.96774193548384</v>
+      </c>
+      <c r="J9" s="1">
+        <f>I9+50</f>
+        <v>320.96774193548384</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <f>(($M$8-$L$8)/16.5)*N9+$L$8</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>C9+1</f>
         <v>1</v>
@@ -481,83 +509,212 @@
         <f>E9+D9*$E$7</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <f t="shared" ref="F10:F16" si="0">E10+60</f>
+        <v>360</v>
+      </c>
+      <c r="H10">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10:I16" si="1">(($D$7-$C$7)/6.2)*H10</f>
+        <v>812.90322580645159</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10:J15" si="2">I10+50</f>
+        <v>862.90322580645159</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ref="O10:O13" si="3">(($M$8-$L$8)/16.5)*N10+$L$8</f>
+        <v>3585.4545454545455</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11">
-        <f t="shared" ref="C11:C15" si="0">C10+1</f>
+        <f t="shared" ref="C11:C15" si="4">C10+1</f>
         <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:E16" si="1">E10+D10*$E$7</f>
+        <f t="shared" ref="E11:E16" si="5">E10+D10*$E$7</f>
         <v>900</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="H11">
+        <v>1.6</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>1083.8709677419354</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>1133.8709677419354</v>
+      </c>
+      <c r="N11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>5793.454545454546</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="H12">
+        <v>3.3</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+        <v>2235.4838709677415</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>2285.4838709677415</v>
+      </c>
+      <c r="N12">
+        <v>12.2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>8402.9090909090919</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>2460</v>
+      </c>
+      <c r="H13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+        <v>2777.4193548387093</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>2827.4193548387093</v>
+      </c>
+      <c r="N13">
+        <v>16.5</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="3"/>
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>3060</v>
+      </c>
+      <c r="H14">
+        <v>4.55</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+        <v>3082.2580645161288</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>3132.2580645161288</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>3360</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+        <v>3387.0967741935483</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>3437.0967741935483</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16">
-        <f t="shared" ref="C16" si="2">C15+1</f>
+        <f t="shared" ref="C16" si="6">C15+1</f>
         <v>7</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="5"/>
+        <v>3600</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>3660</v>
+      </c>
+      <c r="H16">
+        <v>6.2</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
